--- a/results_roots/Az3/Az3_analysis.xlsx
+++ b/results_roots/Az3/Az3_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="470">
   <si>
     <t>sample</t>
   </si>
@@ -106,466 +106,1324 @@
     <t>description</t>
   </si>
   <si>
-    <t>Az3</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>AZ3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>Az3_f4.1GHz_0dB_fit_results.csv</t>
-  </si>
-  <si>
-    <t>Az3_f7GHz_0dB_fit_results.csv</t>
-  </si>
-  <si>
-    <t>Az3_f9GHz_0dB_fit_results.csv</t>
-  </si>
-  <si>
-    <t>Az3_f9.1GHz_0dB_fit_results.csv</t>
-  </si>
-  <si>
-    <t>Az3_f10GHz_10dB_fit_results.csv</t>
-  </si>
-  <si>
-    <t>Az3_f11GHz_10dB_fit_results.csv</t>
+    <t>AZ3_10GHz_0dBm_fit_results.csv</t>
+  </si>
+  <si>
+    <t>AZ3_11GHz_0dBm_fit_results.csv</t>
+  </si>
+  <si>
+    <t>AZ3_12GHz_0dBm_fit_results.csv</t>
+  </si>
+  <si>
+    <t>AZ3_13GHz_0dBm_fit_results.csv</t>
+  </si>
+  <si>
+    <t>AZ3_14GHz_0dBm_fit_results.csv</t>
+  </si>
+  <si>
+    <t>AZ3_15GHz_0dBm_fit_results.csv</t>
+  </si>
+  <si>
+    <t>AZ3_16GHz_0dBm_fit_results.csv</t>
+  </si>
+  <si>
+    <t>AZ3_17GHz_0dBm_fit_results.csv</t>
+  </si>
+  <si>
+    <t>AZ3_3GHz_0dBm_fit_results.csv</t>
+  </si>
+  <si>
+    <t>AZ3_4GHz_0dBm_fit_results.csv</t>
+  </si>
+  <si>
+    <t>AZ3_5GHz_0dBm_fit_results.csv</t>
+  </si>
+  <si>
+    <t>AZ3_6GHz_0dBm_fit_results.csv</t>
+  </si>
+  <si>
+    <t>AZ3_7GHz_0dBm_fit_results.csv</t>
+  </si>
+  <si>
+    <t>AZ3_8GHz_0dBm_fit_results.csv</t>
+  </si>
+  <si>
+    <t>AZ3_9GHz_0dBm_fit_results.csv</t>
+  </si>
+  <si>
+    <t>AZ3_f3GHz_0dB_fit_results.csv</t>
+  </si>
+  <si>
+    <t>AZ3_f4GHz_0dB_fit_results.csv</t>
+  </si>
+  <si>
+    <t>AZ3_f6GHz_0dB_fit_results.csv</t>
   </si>
   <si>
     <t>double_lorentzain</t>
   </si>
   <si>
-    <t>0.9661374689208385</t>
-  </si>
-  <si>
-    <t>0.9442409567851594</t>
-  </si>
-  <si>
-    <t>0.9876071438276111</t>
-  </si>
-  <si>
-    <t>0.008302937793908005</t>
-  </si>
-  <si>
-    <t>0.7600513368652158</t>
-  </si>
-  <si>
-    <t>0.07884500940442152</t>
+    <t>0.995546164975319</t>
+  </si>
+  <si>
+    <t>0.9941036015264633</t>
+  </si>
+  <si>
+    <t>0.9458206510242257</t>
+  </si>
+  <si>
+    <t>0.9913035888940175</t>
+  </si>
+  <si>
+    <t>0.9903727051944219</t>
+  </si>
+  <si>
+    <t>0.9934669722891349</t>
+  </si>
+  <si>
+    <t>0.993412496453493</t>
+  </si>
+  <si>
+    <t>0.9921025568210238</t>
+  </si>
+  <si>
+    <t>0.9532028636001385</t>
+  </si>
+  <si>
+    <t>0.9504334982262318</t>
+  </si>
+  <si>
+    <t>0.8991260420240372</t>
+  </si>
+  <si>
+    <t>0.915851692540425</t>
+  </si>
+  <si>
+    <t>0.9249431404015415</t>
+  </si>
+  <si>
+    <t>0.9602118021828865</t>
+  </si>
+  <si>
+    <t>0.9965831060529129</t>
+  </si>
+  <si>
+    <t>0.9645820185900388</t>
+  </si>
+  <si>
+    <t>0.21681308241791097</t>
+  </si>
+  <si>
+    <t>0.9117802282512973</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>0.07017291998659998</t>
-  </si>
-  <si>
-    <t>0.14177114050658773</t>
-  </si>
-  <si>
-    <t>0.14888457947107964</t>
-  </si>
-  <si>
-    <t>0.020103821124908085</t>
-  </si>
-  <si>
-    <t>0.007988092929005498</t>
-  </si>
-  <si>
-    <t>0.0037912799291372904</t>
-  </si>
-  <si>
-    <t>-8.26364594159078</t>
-  </si>
-  <si>
-    <t>-2.7178459141615203</t>
-  </si>
-  <si>
-    <t>-8.03026178907483</t>
-  </si>
-  <si>
-    <t>-0.021713027017788416</t>
-  </si>
-  <si>
-    <t>-1.525869812707273</t>
-  </si>
-  <si>
-    <t>-0.004804459235261057</t>
-  </si>
-  <si>
-    <t>0.1801695178431473</t>
-  </si>
-  <si>
-    <t>0.33702799336910655</t>
-  </si>
-  <si>
-    <t>0.253875662590468</t>
-  </si>
-  <si>
-    <t>0.06351083387661519</t>
-  </si>
-  <si>
-    <t>0.0625351993483318</t>
-  </si>
-  <si>
-    <t>0.040295682523790205</t>
-  </si>
-  <si>
-    <t>0.6292445095515368</t>
-  </si>
-  <si>
-    <t>-6.157957967705979</t>
-  </si>
-  <si>
-    <t>-4.597134440724766</t>
-  </si>
-  <si>
-    <t>-0.06322278367495558</t>
-  </si>
-  <si>
-    <t>1.4072874848374581</t>
-  </si>
-  <si>
-    <t>0.1527537703971807</t>
-  </si>
-  <si>
-    <t>0.30286072396110586</t>
-  </si>
-  <si>
-    <t>0.2312538119674814</t>
-  </si>
-  <si>
-    <t>0.4178103801993661</t>
-  </si>
-  <si>
-    <t>0.07623629540929423</t>
-  </si>
-  <si>
-    <t>0.06516922126716376</t>
-  </si>
-  <si>
-    <t>0.023296761582132185</t>
-  </si>
-  <si>
-    <t>65.93934990666047</t>
-  </si>
-  <si>
-    <t>159.77302942206862</t>
-  </si>
-  <si>
-    <t>225.77663076771233</t>
-  </si>
-  <si>
-    <t>214.4746632397781</t>
-  </si>
-  <si>
-    <t>256.49390684993506</t>
-  </si>
-  <si>
-    <t>210.92947958987446</t>
-  </si>
-  <si>
-    <t>0.015924983089089503</t>
-  </si>
-  <si>
-    <t>0.03555368581083997</t>
-  </si>
-  <si>
-    <t>0.01946435059874533</t>
-  </si>
-  <si>
-    <t>0.05989642802370996</t>
-  </si>
-  <si>
-    <t>0.025390213541996973</t>
-  </si>
-  <si>
-    <t>0.0994757064906032</t>
-  </si>
-  <si>
-    <t>0.8493146166350106</t>
-  </si>
-  <si>
-    <t>1.1874498206053778</t>
-  </si>
-  <si>
-    <t>0.8478702835471</t>
-  </si>
-  <si>
-    <t>0.06833517392853261</t>
-  </si>
-  <si>
-    <t>1.1671530442246554</t>
-  </si>
-  <si>
-    <t>0.6532385678216023</t>
-  </si>
-  <si>
-    <t>0.015895975732180562</t>
-  </si>
-  <si>
-    <t>0.035477113378182455</t>
-  </si>
-  <si>
-    <t>0.021240371907575908</t>
-  </si>
-  <si>
-    <t>0.017372310227945147</t>
-  </si>
-  <si>
-    <t>0.02539865678754481</t>
-  </si>
-  <si>
-    <t>0.09947432339172349</t>
-  </si>
-  <si>
-    <t>-5.219646265913497</t>
-  </si>
-  <si>
-    <t>-4.083054756268031</t>
-  </si>
-  <si>
-    <t>5.9388823589588915</t>
-  </si>
-  <si>
-    <t>-0.00802782544175121</t>
-  </si>
-  <si>
-    <t>0.01925979784390905</t>
-  </si>
-  <si>
-    <t>0.004623342276170048</t>
-  </si>
-  <si>
-    <t>0.22559977758909036</t>
-  </si>
-  <si>
-    <t>0.2612574456572013</t>
-  </si>
-  <si>
-    <t>0.43545353146838695</t>
-  </si>
-  <si>
-    <t>0.05390434584254298</t>
-  </si>
-  <si>
-    <t>0.06292253706295343</t>
-  </si>
-  <si>
-    <t>0.023327030693097592</t>
-  </si>
-  <si>
-    <t>-2.710786804548435</t>
-  </si>
-  <si>
-    <t>5.934718600635512</t>
-  </si>
-  <si>
-    <t>-5.380737771566379</t>
-  </si>
-  <si>
-    <t>0.027665549467559294</t>
-  </si>
-  <si>
-    <t>0.005845202525078774</t>
-  </si>
-  <si>
-    <t>0.028983025882106002</t>
-  </si>
-  <si>
-    <t>0.2744228451905442</t>
-  </si>
-  <si>
-    <t>0.21493722522532782</t>
-  </si>
-  <si>
-    <t>0.4107043819035867</t>
-  </si>
-  <si>
-    <t>0.031870104239482576</t>
-  </si>
-  <si>
-    <t>0.06478932489142221</t>
-  </si>
-  <si>
-    <t>0.014008326523943073</t>
-  </si>
-  <si>
-    <t>64.24066473192076</t>
-  </si>
-  <si>
-    <t>163.38439783584985</t>
-  </si>
-  <si>
-    <t>221.12818837465534</t>
-  </si>
-  <si>
-    <t>217.10420819816764</t>
-  </si>
-  <si>
-    <t>184.06179222249628</t>
-  </si>
-  <si>
-    <t>282.1664539513438</t>
-  </si>
-  <si>
-    <t>0.02314549615647701</t>
-  </si>
-  <si>
-    <t>0.01883526549445309</t>
-  </si>
-  <si>
-    <t>0.05079538528566689</t>
-  </si>
-  <si>
-    <t>0.23330915279739137</t>
-  </si>
-  <si>
-    <t>0.07505393235959461</t>
-  </si>
-  <si>
-    <t>0.11502500578069662</t>
-  </si>
-  <si>
-    <t>0.8671105294289158</t>
-  </si>
-  <si>
-    <t>0.8146364928043758</t>
-  </si>
-  <si>
-    <t>1.5361493305310763</t>
-  </si>
-  <si>
-    <t>0.16618624696506357</t>
-  </si>
-  <si>
-    <t>0.04576937124073799</t>
-  </si>
-  <si>
-    <t>0.11384595220124039</t>
-  </si>
-  <si>
-    <t>0.023118254648280673</t>
-  </si>
-  <si>
-    <t>0.01877448542994161</t>
-  </si>
-  <si>
-    <t>0.05776511009412497</t>
-  </si>
-  <si>
-    <t>0.15203562210665827</t>
-  </si>
-  <si>
-    <t>0.22886902842717463</t>
-  </si>
-  <si>
-    <t>0.05186648323670754</t>
-  </si>
-  <si>
-    <t>0.08927470454853705</t>
-  </si>
-  <si>
-    <t>-0.26944578233228345</t>
-  </si>
-  <si>
-    <t>44.975875011044565</t>
-  </si>
-  <si>
-    <t>-0.052765113291491826</t>
-  </si>
-  <si>
-    <t>0.020697122903648776</t>
-  </si>
-  <si>
-    <t>0.03817839343287036</t>
-  </si>
-  <si>
-    <t>0.07671294835232657</t>
-  </si>
-  <si>
-    <t>0.3562268546773083</t>
-  </si>
-  <si>
-    <t>5.0785790398666855</t>
-  </si>
-  <si>
-    <t>0.08494849459843319</t>
-  </si>
-  <si>
-    <t>0.020637113858916336</t>
-  </si>
-  <si>
-    <t>0.014071349985926027</t>
-  </si>
-  <si>
-    <t>-0.0012654305645925876</t>
-  </si>
-  <si>
-    <t>0.001793743584993727</t>
-  </si>
-  <si>
-    <t>-0.20896694558674744</t>
-  </si>
-  <si>
-    <t>0.00033098402087492103</t>
-  </si>
-  <si>
-    <t>-3.85235391131625e-06</t>
-  </si>
-  <si>
-    <t>-7.161795391491576e-05</t>
-  </si>
-  <si>
-    <t>0.0010908236746914016</t>
-  </si>
-  <si>
-    <t>0.002171264493954846</t>
-  </si>
-  <si>
-    <t>0.023048464210767634</t>
-  </si>
-  <si>
-    <t>0.0003904149869331558</t>
-  </si>
-  <si>
-    <t>8.979346696436348e-05</t>
-  </si>
-  <si>
-    <t>6.138039353027273e-05</t>
-  </si>
-  <si>
-    <t>Az3_f4.1GHz_0dB_processed.csv</t>
-  </si>
-  <si>
-    <t>Az3_f7GHz_0dB_processed.csv</t>
-  </si>
-  <si>
-    <t>Az3_f9GHz_0dB_processed.csv</t>
-  </si>
-  <si>
-    <t>Az3_f9.1GHz_0dB_processed.csv</t>
-  </si>
-  <si>
-    <t>Az3_f10GHz_10dB_processed.csv</t>
-  </si>
-  <si>
-    <t>Az3_f11GHz_10dB_processed.csv</t>
+    <t>0.002785449998655423</t>
+  </si>
+  <si>
+    <t>0.002111738051214563</t>
+  </si>
+  <si>
+    <t>0.05671944291418198</t>
+  </si>
+  <si>
+    <t>0.00251139251567544</t>
+  </si>
+  <si>
+    <t>0.004842460065115814</t>
+  </si>
+  <si>
+    <t>0.004235691838779981</t>
+  </si>
+  <si>
+    <t>0.002067419790185577</t>
+  </si>
+  <si>
+    <t>0.010802942436814856</t>
+  </si>
+  <si>
+    <t>0.0016127573457578735</t>
+  </si>
+  <si>
+    <t>0.00221004094229474</t>
+  </si>
+  <si>
+    <t>0.0005506206330655329</t>
+  </si>
+  <si>
+    <t>0.002313909805681598</t>
+  </si>
+  <si>
+    <t>0.002720090682331032</t>
+  </si>
+  <si>
+    <t>0.000301358517434446</t>
+  </si>
+  <si>
+    <t>0.0029199630648643927</t>
+  </si>
+  <si>
+    <t>0.06791104895256683</t>
+  </si>
+  <si>
+    <t>0.0012889973751677379</t>
+  </si>
+  <si>
+    <t>0.4928744184245048</t>
+  </si>
+  <si>
+    <t>-0.5011833273920158</t>
+  </si>
+  <si>
+    <t>-2.5717789123347345</t>
+  </si>
+  <si>
+    <t>-2.9566431439176806</t>
+  </si>
+  <si>
+    <t>-1.3153544812210654</t>
+  </si>
+  <si>
+    <t>-4.705932740953369</t>
+  </si>
+  <si>
+    <t>-0.5648755380743566</t>
+  </si>
+  <si>
+    <t>-2.181519753859979</t>
+  </si>
+  <si>
+    <t>-3.4979876486447568</t>
+  </si>
+  <si>
+    <t>-0.8694383379479793</t>
+  </si>
+  <si>
+    <t>-1.0776394617514486</t>
+  </si>
+  <si>
+    <t>-0.2928288919518434</t>
+  </si>
+  <si>
+    <t>-0.9817270379776784</t>
+  </si>
+  <si>
+    <t>-0.9252336561343583</t>
+  </si>
+  <si>
+    <t>-0.27799527020243747</t>
+  </si>
+  <si>
+    <t>-2.946451645418114</t>
+  </si>
+  <si>
+    <t>-2.9601105610945884</t>
+  </si>
+  <si>
+    <t>-0.005353999696153841</t>
+  </si>
+  <si>
+    <t>-8.006117042370315</t>
+  </si>
+  <si>
+    <t>0.0650761053553547</t>
+  </si>
+  <si>
+    <t>0.07284967138081583</t>
+  </si>
+  <si>
+    <t>0.15495056997464585</t>
+  </si>
+  <si>
+    <t>0.03861231535163794</t>
+  </si>
+  <si>
+    <t>0.04154399628732766</t>
+  </si>
+  <si>
+    <t>0.07473903766319438</t>
+  </si>
+  <si>
+    <t>0.03347787513406261</t>
+  </si>
+  <si>
+    <t>0.1065165825101312</t>
+  </si>
+  <si>
+    <t>0.011253460239605374</t>
+  </si>
+  <si>
+    <t>0.015339565023500895</t>
+  </si>
+  <si>
+    <t>0.01159767231789026</t>
+  </si>
+  <si>
+    <t>0.018290162842092474</t>
+  </si>
+  <si>
+    <t>0.0233740470816565</t>
+  </si>
+  <si>
+    <t>0.007214523518926223</t>
+  </si>
+  <si>
+    <t>0.04603063752237211</t>
+  </si>
+  <si>
+    <t>0.17087528872102578</t>
+  </si>
+  <si>
+    <t>0.013328715452978349</t>
+  </si>
+  <si>
+    <t>0.3226880786953021</t>
+  </si>
+  <si>
+    <t>-2.3817026637159513</t>
+  </si>
+  <si>
+    <t>1.8842516032199101</t>
+  </si>
+  <si>
+    <t>6.368121324551313</t>
+  </si>
+  <si>
+    <t>2.2047418610617227</t>
+  </si>
+  <si>
+    <t>0.916987785703365</t>
+  </si>
+  <si>
+    <t>-2.6772333921592395</t>
+  </si>
+  <si>
+    <t>1.8239097816198413</t>
+  </si>
+  <si>
+    <t>4.1128811544705774</t>
+  </si>
+  <si>
+    <t>0.015315588207676497</t>
+  </si>
+  <si>
+    <t>0.2321222698154881</t>
+  </si>
+  <si>
+    <t>0.3201116343206295</t>
+  </si>
+  <si>
+    <t>0.1856469569585185</t>
+  </si>
+  <si>
+    <t>0.48809669932768357</t>
+  </si>
+  <si>
+    <t>0.07946530477982512</t>
+  </si>
+  <si>
+    <t>1.6917334192766067</t>
+  </si>
+  <si>
+    <t>-1.19214904931507</t>
+  </si>
+  <si>
+    <t>0.027965187475383194</t>
+  </si>
+  <si>
+    <t>2.394481961164474</t>
+  </si>
+  <si>
+    <t>0.03695580601894538</t>
+  </si>
+  <si>
+    <t>0.07450502109139347</t>
+  </si>
+  <si>
+    <t>0.11098787056796966</t>
+  </si>
+  <si>
+    <t>0.0286078992155966</t>
+  </si>
+  <si>
+    <t>0.06659110629009943</t>
+  </si>
+  <si>
+    <t>0.042647106639575494</t>
+  </si>
+  <si>
+    <t>0.03437565333934658</t>
+  </si>
+  <si>
+    <t>0.09141113856409039</t>
+  </si>
+  <si>
+    <t>0.019514500737595458</t>
+  </si>
+  <si>
+    <t>0.02509598117213024</t>
+  </si>
+  <si>
+    <t>0.013379451990191077</t>
+  </si>
+  <si>
+    <t>0.030287980427088333</t>
+  </si>
+  <si>
+    <t>0.0312788119828553</t>
+  </si>
+  <si>
+    <t>0.01134103713957486</t>
+  </si>
+  <si>
+    <t>0.05333861283069455</t>
+  </si>
+  <si>
+    <t>0.2298065034938752</t>
+  </si>
+  <si>
+    <t>0.007185318010699609</t>
+  </si>
+  <si>
+    <t>0.5043524361520455</t>
+  </si>
+  <si>
+    <t>252.34288623284792</t>
+  </si>
+  <si>
+    <t>286.85859346290994</t>
+  </si>
+  <si>
+    <t>319.46392128811436</t>
+  </si>
+  <si>
+    <t>353.7058437610257</t>
+  </si>
+  <si>
+    <t>386.4378096704214</t>
+  </si>
+  <si>
+    <t>419.8957948861271</t>
+  </si>
+  <si>
+    <t>458.27104038036816</t>
+  </si>
+  <si>
+    <t>494.13192747120723</t>
+  </si>
+  <si>
+    <t>42.24785284105571</t>
+  </si>
+  <si>
+    <t>67.65081579865897</t>
+  </si>
+  <si>
+    <t>96.17037005141626</t>
+  </si>
+  <si>
+    <t>126.4303414954003</t>
+  </si>
+  <si>
+    <t>158.57012226369935</t>
+  </si>
+  <si>
+    <t>191.29224578685654</t>
+  </si>
+  <si>
+    <t>217.49593166912413</t>
+  </si>
+  <si>
+    <t>41.870323035646514</t>
+  </si>
+  <si>
+    <t>101.14787446177935</t>
+  </si>
+  <si>
+    <t>131.19543020447267</t>
+  </si>
+  <si>
+    <t>0.010971941065590537</t>
+  </si>
+  <si>
+    <t>0.006745435376685655</t>
+  </si>
+  <si>
+    <t>0.009928759295965574</t>
+  </si>
+  <si>
+    <t>0.006107165407473709</t>
+  </si>
+  <si>
+    <t>0.004908658155081928</t>
+  </si>
+  <si>
+    <t>0.01217533338254001</t>
+  </si>
+  <si>
+    <t>0.005822978942291344</t>
+  </si>
+  <si>
+    <t>0.007923652669396484</t>
+  </si>
+  <si>
+    <t>0.004656085036952509</t>
+  </si>
+  <si>
+    <t>0.005966475976680281</t>
+  </si>
+  <si>
+    <t>0.010408596998186732</t>
+  </si>
+  <si>
+    <t>0.010947621464342671</t>
+  </si>
+  <si>
+    <t>0.011941176333655129</t>
+  </si>
+  <si>
+    <t>0.011384331344312389</t>
+  </si>
+  <si>
+    <t>0.004788982963341797</t>
+  </si>
+  <si>
+    <t>0.020631381709721924</t>
+  </si>
+  <si>
+    <t>0.059306889318342985</t>
+  </si>
+  <si>
+    <t>0.025590147324592864</t>
+  </si>
+  <si>
+    <t>0.8166991016155686</t>
+  </si>
+  <si>
+    <t>0.6176684059701502</t>
+  </si>
+  <si>
+    <t>0.7314924344334407</t>
+  </si>
+  <si>
+    <t>0.6901684406158829</t>
+  </si>
+  <si>
+    <t>0.6764029915252289</t>
+  </si>
+  <si>
+    <t>0.8663027634890649</t>
+  </si>
+  <si>
+    <t>0.7440158096518618</t>
+  </si>
+  <si>
+    <t>0.7271033649773907</t>
+  </si>
+  <si>
+    <t>0.3590185707068104</t>
+  </si>
+  <si>
+    <t>0.4472339259928354</t>
+  </si>
+  <si>
+    <t>0.530265713117097</t>
+  </si>
+  <si>
+    <t>0.6183354034026777</t>
+  </si>
+  <si>
+    <t>0.6399954121863424</t>
+  </si>
+  <si>
+    <t>0.5095332663070321</t>
+  </si>
+  <si>
+    <t>0.5647512487278076</t>
+  </si>
+  <si>
+    <t>0.5329479822643567</t>
+  </si>
+  <si>
+    <t>0.12105900656016655</t>
+  </si>
+  <si>
+    <t>0.7259399976154287</t>
+  </si>
+  <si>
+    <t>0.010927834951747257</t>
+  </si>
+  <si>
+    <t>0.006763193516996348</t>
+  </si>
+  <si>
+    <t>0.009925588826603573</t>
+  </si>
+  <si>
+    <t>0.006101675903473873</t>
+  </si>
+  <si>
+    <t>0.0049166355855141545</t>
+  </si>
+  <si>
+    <t>0.012128381999043708</t>
+  </si>
+  <si>
+    <t>0.005817040915051756</t>
+  </si>
+  <si>
+    <t>0.007978498164216823</t>
+  </si>
+  <si>
+    <t>0.00463589412807993</t>
+  </si>
+  <si>
+    <t>0.0059650716139076285</t>
+  </si>
+  <si>
+    <t>0.009799674360930644</t>
+  </si>
+  <si>
+    <t>0.010950901428156011</t>
+  </si>
+  <si>
+    <t>0.01195084529425313</t>
+  </si>
+  <si>
+    <t>0.011420697657107605</t>
+  </si>
+  <si>
+    <t>0.004790309962141296</t>
+  </si>
+  <si>
+    <t>0.02058549931939851</t>
+  </si>
+  <si>
+    <t>0.035482883707930686</t>
+  </si>
+  <si>
+    <t>0.025413972764770396</t>
+  </si>
+  <si>
+    <t>-1.492556909636579</t>
+  </si>
+  <si>
+    <t>0.5089095536314722</t>
+  </si>
+  <si>
+    <t>-0.020857845136031086</t>
+  </si>
+  <si>
+    <t>-1.2025491473430243</t>
+  </si>
+  <si>
+    <t>1.5173682029891777</t>
+  </si>
+  <si>
+    <t>-2.0954293328148634</t>
+  </si>
+  <si>
+    <t>0.02069211409973617</t>
+  </si>
+  <si>
+    <t>0.9878672115325249</t>
+  </si>
+  <si>
+    <t>-0.0017065551234328388</t>
+  </si>
+  <si>
+    <t>-0.004769902113823011</t>
+  </si>
+  <si>
+    <t>0.024951266505848998</t>
+  </si>
+  <si>
+    <t>-0.00541074953814499</t>
+  </si>
+  <si>
+    <t>-0.008909509089243595</t>
+  </si>
+  <si>
+    <t>-0.026383657162203485</t>
+  </si>
+  <si>
+    <t>0.9009440667393653</t>
+  </si>
+  <si>
+    <t>-6.11753996872193</t>
+  </si>
+  <si>
+    <t>0.015959904143675378</t>
+  </si>
+  <si>
+    <t>-2.2416496247887463</t>
+  </si>
+  <si>
+    <t>0.056784627908217984</t>
+  </si>
+  <si>
+    <t>0.0815751157065471</t>
+  </si>
+  <si>
+    <t>0.05039887046424333</t>
+  </si>
+  <si>
+    <t>0.03477959567151696</t>
+  </si>
+  <si>
+    <t>0.0565743253557525</t>
+  </si>
+  <si>
+    <t>0.06680309674889742</t>
+  </si>
+  <si>
+    <t>0.04243235398953988</t>
+  </si>
+  <si>
+    <t>0.1324193627940226</t>
+  </si>
+  <si>
+    <t>0.013427614754931762</t>
+  </si>
+  <si>
+    <t>0.01259995454155935</t>
+  </si>
+  <si>
+    <t>2728371913.9149346</t>
+  </si>
+  <si>
+    <t>0.016757841804491903</t>
+  </si>
+  <si>
+    <t>0.019165244877639962</t>
+  </si>
+  <si>
+    <t>0.011049541538172709</t>
+  </si>
+  <si>
+    <t>0.0611476866727442</t>
+  </si>
+  <si>
+    <t>0.1566044012156257</t>
+  </si>
+  <si>
+    <t>0.011989281191906542</t>
+  </si>
+  <si>
+    <t>0.6323505152465986</t>
+  </si>
+  <si>
+    <t>3.1388133383709045</t>
+  </si>
+  <si>
+    <t>-1.649019969735012</t>
+  </si>
+  <si>
+    <t>-0.0010332678181890222</t>
+  </si>
+  <si>
+    <t>-1.35894777185502</t>
+  </si>
+  <si>
+    <t>-1.124338419723689</t>
+  </si>
+  <si>
+    <t>4.293251107764052</t>
+  </si>
+  <si>
+    <t>-1.3171215598592008</t>
+  </si>
+  <si>
+    <t>-1.804405169700745</t>
+  </si>
+  <si>
+    <t>0.004404806788375212</t>
+  </si>
+  <si>
+    <t>-0.0012857473286490007</t>
+  </si>
+  <si>
+    <t>0.012515294522662302</t>
+  </si>
+  <si>
+    <t>0.008268059844656683</t>
+  </si>
+  <si>
+    <t>0.0036057646561922754</t>
+  </si>
+  <si>
+    <t>-0.07995877854604777</t>
+  </si>
+  <si>
+    <t>-1.9853874393061652</t>
+  </si>
+  <si>
+    <t>-0.6860654360745975</t>
+  </si>
+  <si>
+    <t>0.024214115131997296</t>
+  </si>
+  <si>
+    <t>-5.738526793869494</t>
+  </si>
+  <si>
+    <t>0.03757029291793591</t>
+  </si>
+  <si>
+    <t>0.07599058706690982</t>
+  </si>
+  <si>
+    <t>0.0838174550586723</t>
+  </si>
+  <si>
+    <t>0.030991627046370273</t>
+  </si>
+  <si>
+    <t>0.07408374944842926</t>
+  </si>
+  <si>
+    <t>0.044742715901355125</t>
+  </si>
+  <si>
+    <t>0.024155869073577196</t>
+  </si>
+  <si>
+    <t>0.1155356797522348</t>
+  </si>
+  <si>
+    <t>0.0071328561153998155</t>
+  </si>
+  <si>
+    <t>0.031506346356640055</t>
+  </si>
+  <si>
+    <t>37026067.379968464</t>
+  </si>
+  <si>
+    <t>0.013257334270034594</t>
+  </si>
+  <si>
+    <t>0.032418615398972936</t>
+  </si>
+  <si>
+    <t>0.007029737576586924</t>
+  </si>
+  <si>
+    <t>0.051115108525964265</t>
+  </si>
+  <si>
+    <t>0.27630512836125976</t>
+  </si>
+  <si>
+    <t>0.0067669937875671875</t>
+  </si>
+  <si>
+    <t>0.4220816544804782</t>
+  </si>
+  <si>
+    <t>253.62367667233448</t>
+  </si>
+  <si>
+    <t>285.9123318751511</t>
+  </si>
+  <si>
+    <t>348.8740297821645</t>
+  </si>
+  <si>
+    <t>352.0039975789874</t>
+  </si>
+  <si>
+    <t>384.72167903511956</t>
+  </si>
+  <si>
+    <t>421.47452643782907</t>
+  </si>
+  <si>
+    <t>456.4788168267565</t>
+  </si>
+  <si>
+    <t>492.3987023737149</t>
+  </si>
+  <si>
+    <t>11.985630236624349</t>
+  </si>
+  <si>
+    <t>73.55040164915046</t>
+  </si>
+  <si>
+    <t>67.7141851661999</t>
+  </si>
+  <si>
+    <t>139.5482410437859</t>
+  </si>
+  <si>
+    <t>134.56001573462575</t>
+  </si>
+  <si>
+    <t>189.84740882973585</t>
+  </si>
+  <si>
+    <t>216.34537419050463</t>
+  </si>
+  <si>
+    <t>43.03789996155093</t>
+  </si>
+  <si>
+    <t>97.22992556928676</t>
+  </si>
+  <si>
+    <t>127.7465273104663</t>
+  </si>
+  <si>
+    <t>0.005169739694581306</t>
+  </si>
+  <si>
+    <t>0.037236601893288035</t>
+  </si>
+  <si>
+    <t>0.40885947486102003</t>
+  </si>
+  <si>
+    <t>0.0078037108543607065</t>
+  </si>
+  <si>
+    <t>0.02336156781605136</t>
+  </si>
+  <si>
+    <t>0.005411574179068241</t>
+  </si>
+  <si>
+    <t>0.013308599246311652</t>
+  </si>
+  <si>
+    <t>0.05074603509452041</t>
+  </si>
+  <si>
+    <t>0.2655458195731236</t>
+  </si>
+  <si>
+    <t>0.17383768272186184</t>
+  </si>
+  <si>
+    <t>16524.354367416377</t>
+  </si>
+  <si>
+    <t>0.23708378055133614</t>
+  </si>
+  <si>
+    <t>0.13696861230727275</t>
+  </si>
+  <si>
+    <t>0.03635274335968888</t>
+  </si>
+  <si>
+    <t>0.013050602723191149</t>
+  </si>
+  <si>
+    <t>0.01611130848716445</t>
+  </si>
+  <si>
+    <t>0.05002794323325517</t>
+  </si>
+  <si>
+    <t>0.06909214080399095</t>
+  </si>
+  <si>
+    <t>0.6289785531185333</t>
+  </si>
+  <si>
+    <t>1.278417881089446</t>
+  </si>
+  <si>
+    <t>0.19521030246778015</t>
+  </si>
+  <si>
+    <t>0.6448306061642176</t>
+  </si>
+  <si>
+    <t>1.0264724175989182</t>
+  </si>
+  <si>
+    <t>0.733667698309337</t>
+  </si>
+  <si>
+    <t>0.7724128996471945</t>
+  </si>
+  <si>
+    <t>1.3053014201823814</t>
+  </si>
+  <si>
+    <t>0.13022432847130505</t>
+  </si>
+  <si>
+    <t>0.05222510631958277</t>
+  </si>
+  <si>
+    <t>9.029782244152074e-08</t>
+  </si>
+  <si>
+    <t>0.1859610051923365</t>
+  </si>
+  <si>
+    <t>0.09049850359943845</t>
+  </si>
+  <si>
+    <t>0.4866624690632605</t>
+  </si>
+  <si>
+    <t>0.8187025415384283</t>
+  </si>
+  <si>
+    <t>0.7001894470530275</t>
+  </si>
+  <si>
+    <t>0.13374229926901837</t>
+  </si>
+  <si>
+    <t>1.1467107755487058</t>
+  </si>
+  <si>
+    <t>0.005184719763519676</t>
+  </si>
+  <si>
+    <t>0.03727772310790448</t>
+  </si>
+  <si>
+    <t>0.6061983538314669</t>
+  </si>
+  <si>
+    <t>0.007799517946061332</t>
+  </si>
+  <si>
+    <t>0.023308205333307973</t>
+  </si>
+  <si>
+    <t>0.0054278858382620105</t>
+  </si>
+  <si>
+    <t>0.013284931231146374</t>
+  </si>
+  <si>
+    <t>0.050462811387407776</t>
+  </si>
+  <si>
+    <t>0.32539268667121146</t>
+  </si>
+  <si>
+    <t>0.36160569326157516</t>
+  </si>
+  <si>
+    <t>267.1499256786494</t>
+  </si>
+  <si>
+    <t>0.1678755092145762</t>
+  </si>
+  <si>
+    <t>0.20325299250229</t>
+  </si>
+  <si>
+    <t>0.03658583365352071</t>
+  </si>
+  <si>
+    <t>0.013050797402973857</t>
+  </si>
+  <si>
+    <t>0.01609205825770522</t>
+  </si>
+  <si>
+    <t>0.03827322747815949</t>
+  </si>
+  <si>
+    <t>0.07084975909872786</t>
+  </si>
+  <si>
+    <t>-0.09633587148301624</t>
+  </si>
+  <si>
+    <t>-0.11120956430945114</t>
+  </si>
+  <si>
+    <t>-0.10507606499985245</t>
+  </si>
+  <si>
+    <t>-0.12745260001604494</t>
+  </si>
+  <si>
+    <t>-0.08090951651022991</t>
+  </si>
+  <si>
+    <t>-0.11351093867145837</t>
+  </si>
+  <si>
+    <t>-0.24193300800667875</t>
+  </si>
+  <si>
+    <t>-0.9605944145016034</t>
+  </si>
+  <si>
+    <t>-0.01675183568886815</t>
+  </si>
+  <si>
+    <t>-0.01939530605266049</t>
+  </si>
+  <si>
+    <t>-0.021534492603435467</t>
+  </si>
+  <si>
+    <t>-0.01962866980710437</t>
+  </si>
+  <si>
+    <t>-0.007678645100696335</t>
+  </si>
+  <si>
+    <t>-0.16656404779864134</t>
+  </si>
+  <si>
+    <t>-0.20058518205475367</t>
+  </si>
+  <si>
+    <t>0.1255836291199311</t>
+  </si>
+  <si>
+    <t>-0.05023962192774353</t>
+  </si>
+  <si>
+    <t>-0.5915014338945769</t>
+  </si>
+  <si>
+    <t>0.053574298688973954</t>
+  </si>
+  <si>
+    <t>0.04681578522453315</t>
+  </si>
+  <si>
+    <t>0.23683881164654963</t>
+  </si>
+  <si>
+    <t>0.06825829933097101</t>
+  </si>
+  <si>
+    <t>0.057731882687110554</t>
+  </si>
+  <si>
+    <t>0.06784657642009853</t>
+  </si>
+  <si>
+    <t>0.10026758225799605</t>
+  </si>
+  <si>
+    <t>0.4062052298557615</t>
+  </si>
+  <si>
+    <t>0.004977562522166839</t>
+  </si>
+  <si>
+    <t>0.011631076229152654</t>
+  </si>
+  <si>
+    <t>0.006495501676610066</t>
+  </si>
+  <si>
+    <t>0.020105699416603298</t>
+  </si>
+  <si>
+    <t>0.0371611231820689</t>
+  </si>
+  <si>
+    <t>0.041823237181071185</t>
+  </si>
+  <si>
+    <t>0.07630974931558876</t>
+  </si>
+  <si>
+    <t>0.1016506195020279</t>
+  </si>
+  <si>
+    <t>0.01709145841436796</t>
+  </si>
+  <si>
+    <t>1.293692752477047</t>
+  </si>
+  <si>
+    <t>0.00030050895004385126</t>
+  </si>
+  <si>
+    <t>0.0003168321219616154</t>
+  </si>
+  <si>
+    <t>0.0002530610918817038</t>
+  </si>
+  <si>
+    <t>0.0002978986926948447</t>
+  </si>
+  <si>
+    <t>0.0001446289509569409</t>
+  </si>
+  <si>
+    <t>0.00021436305421942948</t>
+  </si>
+  <si>
+    <t>0.00047702283353815073</t>
+  </si>
+  <si>
+    <t>0.0018912984619417472</t>
+  </si>
+  <si>
+    <t>-0.00016907644428944973</t>
+  </si>
+  <si>
+    <t>-4.320740725020144e-05</t>
+  </si>
+  <si>
+    <t>1.0428803443581965e-05</t>
+  </si>
+  <si>
+    <t>-1.71376821869823e-05</t>
+  </si>
+  <si>
+    <t>-9.189204644505784e-05</t>
+  </si>
+  <si>
+    <t>0.000782349496185438</t>
+  </si>
+  <si>
+    <t>0.0008339500824014469</t>
+  </si>
+  <si>
+    <t>-0.0025088419450929687</t>
+  </si>
+  <si>
+    <t>0.0005660657675458525</t>
+  </si>
+  <si>
+    <t>0.004791838451511578</t>
+  </si>
+  <si>
+    <t>0.00020951167225103208</t>
+  </si>
+  <si>
+    <t>0.00016362721196963852</t>
+  </si>
+  <si>
+    <t>0.0007349440925213372</t>
+  </si>
+  <si>
+    <t>0.00019064979786149997</t>
+  </si>
+  <si>
+    <t>0.00014501728670544782</t>
+  </si>
+  <si>
+    <t>0.0001587906801053931</t>
+  </si>
+  <si>
+    <t>0.00021895805389159022</t>
+  </si>
+  <si>
+    <t>0.0008197575556258627</t>
+  </si>
+  <si>
+    <t>0.00013496461035354023</t>
+  </si>
+  <si>
+    <t>0.00015749108144198998</t>
+  </si>
+  <si>
+    <t>6.717003532879269e-05</t>
+  </si>
+  <si>
+    <t>0.00016118324784705946</t>
+  </si>
+  <si>
+    <t>0.0002490888785443743</t>
+  </si>
+  <si>
+    <t>0.00022704700590767197</t>
+  </si>
+  <si>
+    <t>0.00035177728833531206</t>
+  </si>
+  <si>
+    <t>0.002200796783167846</t>
+  </si>
+  <si>
+    <t>0.0001852318300828783</t>
+  </si>
+  <si>
+    <t>0.009724027971683048</t>
+  </si>
+  <si>
+    <t>AZ3_10GHz_0dBm_processed.csv</t>
+  </si>
+  <si>
+    <t>AZ3_11GHz_0dBm_processed.csv</t>
+  </si>
+  <si>
+    <t>AZ3_12GHz_0dBm_processed.csv</t>
+  </si>
+  <si>
+    <t>AZ3_13GHz_0dBm_processed.csv</t>
+  </si>
+  <si>
+    <t>AZ3_14GHz_0dBm_processed.csv</t>
+  </si>
+  <si>
+    <t>AZ3_15GHz_0dBm_processed.csv</t>
+  </si>
+  <si>
+    <t>AZ3_16GHz_0dBm_processed.csv</t>
+  </si>
+  <si>
+    <t>AZ3_17GHz_0dBm_processed.csv</t>
+  </si>
+  <si>
+    <t>AZ3_3GHz_0dBm_processed.csv</t>
+  </si>
+  <si>
+    <t>AZ3_4GHz_0dBm_processed.csv</t>
+  </si>
+  <si>
+    <t>AZ3_5GHz_0dBm_processed.csv</t>
+  </si>
+  <si>
+    <t>AZ3_6GHz_0dBm_processed.csv</t>
+  </si>
+  <si>
+    <t>AZ3_7GHz_0dBm_processed.csv</t>
+  </si>
+  <si>
+    <t>AZ3_8GHz_0dBm_processed.csv</t>
+  </si>
+  <si>
+    <t>AZ3_9GHz_0dBm_processed.csv</t>
+  </si>
+  <si>
+    <t>AZ3_f3GHz_0dB_processed.csv</t>
+  </si>
+  <si>
+    <t>AZ3_f4GHz_0dB_processed.csv</t>
+  </si>
+  <si>
+    <t>AZ3_f6GHz_0dB_processed.csv</t>
   </si>
 </sst>
 </file>
@@ -923,7 +1781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD7"/>
+  <dimension ref="A1:AD19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1025,534 +1883,1557 @@
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="N2" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="O2" t="s">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="Q2" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="R2" t="s">
-        <v>106</v>
+        <v>236</v>
       </c>
       <c r="S2" t="s">
-        <v>112</v>
+        <v>254</v>
       </c>
       <c r="T2" t="s">
-        <v>118</v>
+        <v>272</v>
       </c>
       <c r="U2" t="s">
-        <v>124</v>
+        <v>290</v>
       </c>
       <c r="V2" t="s">
-        <v>130</v>
+        <v>308</v>
       </c>
       <c r="W2" t="s">
-        <v>136</v>
+        <v>326</v>
       </c>
       <c r="X2" t="s">
-        <v>142</v>
+        <v>344</v>
       </c>
       <c r="Y2" t="s">
-        <v>148</v>
+        <v>362</v>
       </c>
       <c r="Z2" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="AA2" t="s">
-        <v>160</v>
+        <v>398</v>
       </c>
       <c r="AB2" t="s">
-        <v>166</v>
+        <v>416</v>
       </c>
       <c r="AC2" t="s">
-        <v>172</v>
+        <v>434</v>
       </c>
       <c r="AD2" t="s">
-        <v>178</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
       <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="L3" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="N3" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="O3" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="P3" t="s">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="Q3" t="s">
-        <v>101</v>
+        <v>219</v>
       </c>
       <c r="R3" t="s">
-        <v>107</v>
+        <v>237</v>
       </c>
       <c r="S3" t="s">
-        <v>113</v>
+        <v>255</v>
       </c>
       <c r="T3" t="s">
-        <v>119</v>
+        <v>273</v>
       </c>
       <c r="U3" t="s">
-        <v>125</v>
+        <v>291</v>
       </c>
       <c r="V3" t="s">
-        <v>131</v>
+        <v>309</v>
       </c>
       <c r="W3" t="s">
-        <v>137</v>
+        <v>327</v>
       </c>
       <c r="X3" t="s">
-        <v>143</v>
+        <v>345</v>
       </c>
       <c r="Y3" t="s">
-        <v>149</v>
+        <v>363</v>
       </c>
       <c r="Z3" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="AA3" t="s">
-        <v>161</v>
+        <v>399</v>
       </c>
       <c r="AB3" t="s">
-        <v>167</v>
+        <v>417</v>
       </c>
       <c r="AC3" t="s">
-        <v>173</v>
+        <v>435</v>
       </c>
       <c r="AD3" t="s">
-        <v>179</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="M4" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="N4" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="O4" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="P4" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="Q4" t="s">
-        <v>102</v>
+        <v>220</v>
       </c>
       <c r="R4" t="s">
-        <v>108</v>
+        <v>238</v>
       </c>
       <c r="S4" t="s">
-        <v>114</v>
+        <v>256</v>
       </c>
       <c r="T4" t="s">
-        <v>120</v>
+        <v>274</v>
       </c>
       <c r="U4" t="s">
-        <v>126</v>
+        <v>292</v>
       </c>
       <c r="V4" t="s">
-        <v>132</v>
+        <v>310</v>
       </c>
       <c r="W4" t="s">
-        <v>138</v>
+        <v>328</v>
       </c>
       <c r="X4" t="s">
-        <v>144</v>
+        <v>346</v>
       </c>
       <c r="Y4" t="s">
-        <v>150</v>
+        <v>364</v>
       </c>
       <c r="Z4" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="AA4" t="s">
-        <v>162</v>
+        <v>400</v>
       </c>
       <c r="AB4" t="s">
-        <v>168</v>
+        <v>418</v>
       </c>
       <c r="AC4" t="s">
-        <v>174</v>
+        <v>436</v>
       </c>
       <c r="AD4" t="s">
-        <v>180</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="N5" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="O5" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="P5" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="Q5" t="s">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="R5" t="s">
-        <v>109</v>
+        <v>239</v>
       </c>
       <c r="S5" t="s">
-        <v>115</v>
+        <v>257</v>
       </c>
       <c r="T5" t="s">
-        <v>121</v>
+        <v>275</v>
       </c>
       <c r="U5" t="s">
-        <v>127</v>
+        <v>293</v>
       </c>
       <c r="V5" t="s">
-        <v>133</v>
+        <v>311</v>
       </c>
       <c r="W5" t="s">
-        <v>139</v>
+        <v>329</v>
       </c>
       <c r="X5" t="s">
-        <v>145</v>
+        <v>347</v>
       </c>
       <c r="Y5" t="s">
-        <v>151</v>
+        <v>365</v>
       </c>
       <c r="Z5" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="AA5" t="s">
-        <v>163</v>
+        <v>401</v>
       </c>
       <c r="AB5" t="s">
-        <v>169</v>
+        <v>419</v>
       </c>
       <c r="AC5" t="s">
-        <v>175</v>
+        <v>437</v>
       </c>
       <c r="AD5" t="s">
-        <v>181</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="O6" t="s">
-        <v>92</v>
+        <v>186</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="Q6" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="R6" t="s">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="S6" t="s">
-        <v>116</v>
+        <v>258</v>
       </c>
       <c r="T6" t="s">
-        <v>122</v>
+        <v>276</v>
       </c>
       <c r="U6" t="s">
-        <v>128</v>
+        <v>294</v>
       </c>
       <c r="V6" t="s">
-        <v>134</v>
+        <v>312</v>
       </c>
       <c r="W6" t="s">
-        <v>140</v>
+        <v>330</v>
       </c>
       <c r="X6" t="s">
-        <v>146</v>
+        <v>348</v>
       </c>
       <c r="Y6" t="s">
-        <v>152</v>
+        <v>366</v>
       </c>
       <c r="Z6" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="AA6" t="s">
-        <v>164</v>
+        <v>402</v>
       </c>
       <c r="AB6" t="s">
-        <v>170</v>
+        <v>420</v>
       </c>
       <c r="AC6" t="s">
-        <v>176</v>
+        <v>438</v>
       </c>
       <c r="AD6" t="s">
-        <v>182</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
       <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M7" t="s">
+        <v>151</v>
+      </c>
+      <c r="N7" t="s">
+        <v>169</v>
+      </c>
+      <c r="O7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>223</v>
+      </c>
+      <c r="R7" t="s">
+        <v>241</v>
+      </c>
+      <c r="S7" t="s">
+        <v>259</v>
+      </c>
+      <c r="T7" t="s">
+        <v>277</v>
+      </c>
+      <c r="U7" t="s">
+        <v>295</v>
+      </c>
+      <c r="V7" t="s">
+        <v>313</v>
+      </c>
+      <c r="W7" t="s">
+        <v>331</v>
+      </c>
+      <c r="X7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" t="s">
+        <v>134</v>
+      </c>
+      <c r="M8" t="s">
+        <v>152</v>
+      </c>
+      <c r="N8" t="s">
+        <v>170</v>
+      </c>
+      <c r="O8" t="s">
+        <v>188</v>
+      </c>
+      <c r="P8" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>224</v>
+      </c>
+      <c r="R8" t="s">
+        <v>242</v>
+      </c>
+      <c r="S8" t="s">
+        <v>260</v>
+      </c>
+      <c r="T8" t="s">
+        <v>278</v>
+      </c>
+      <c r="U8" t="s">
+        <v>296</v>
+      </c>
+      <c r="V8" t="s">
+        <v>314</v>
+      </c>
+      <c r="W8" t="s">
+        <v>332</v>
+      </c>
+      <c r="X8" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" t="s">
+        <v>135</v>
+      </c>
+      <c r="M9" t="s">
+        <v>153</v>
+      </c>
+      <c r="N9" t="s">
+        <v>171</v>
+      </c>
+      <c r="O9" t="s">
+        <v>189</v>
+      </c>
+      <c r="P9" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>225</v>
+      </c>
+      <c r="R9" t="s">
+        <v>243</v>
+      </c>
+      <c r="S9" t="s">
+        <v>261</v>
+      </c>
+      <c r="T9" t="s">
+        <v>279</v>
+      </c>
+      <c r="U9" t="s">
+        <v>297</v>
+      </c>
+      <c r="V9" t="s">
+        <v>315</v>
+      </c>
+      <c r="W9" t="s">
+        <v>333</v>
+      </c>
+      <c r="X9" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>405</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>423</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>136</v>
+      </c>
+      <c r="M10" t="s">
+        <v>154</v>
+      </c>
+      <c r="N10" t="s">
+        <v>172</v>
+      </c>
+      <c r="O10" t="s">
+        <v>190</v>
+      </c>
+      <c r="P10" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>226</v>
+      </c>
+      <c r="R10" t="s">
+        <v>244</v>
+      </c>
+      <c r="S10" t="s">
+        <v>262</v>
+      </c>
+      <c r="T10" t="s">
+        <v>280</v>
+      </c>
+      <c r="U10" t="s">
+        <v>298</v>
+      </c>
+      <c r="V10" t="s">
+        <v>316</v>
+      </c>
+      <c r="W10" t="s">
+        <v>334</v>
+      </c>
+      <c r="X10" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>424</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>137</v>
+      </c>
+      <c r="M11" t="s">
+        <v>155</v>
+      </c>
+      <c r="N11" t="s">
+        <v>173</v>
+      </c>
+      <c r="O11" t="s">
+        <v>191</v>
+      </c>
+      <c r="P11" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>227</v>
+      </c>
+      <c r="R11" t="s">
+        <v>245</v>
+      </c>
+      <c r="S11" t="s">
+        <v>263</v>
+      </c>
+      <c r="T11" t="s">
+        <v>281</v>
+      </c>
+      <c r="U11" t="s">
+        <v>299</v>
+      </c>
+      <c r="V11" t="s">
+        <v>317</v>
+      </c>
+      <c r="W11" t="s">
+        <v>335</v>
+      </c>
+      <c r="X11" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N12" t="s">
+        <v>174</v>
+      </c>
+      <c r="O12" t="s">
+        <v>192</v>
+      </c>
+      <c r="P12" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>228</v>
+      </c>
+      <c r="R12" t="s">
+        <v>246</v>
+      </c>
+      <c r="S12" t="s">
+        <v>264</v>
+      </c>
+      <c r="T12" t="s">
+        <v>282</v>
+      </c>
+      <c r="U12" t="s">
+        <v>300</v>
+      </c>
+      <c r="V12" t="s">
+        <v>318</v>
+      </c>
+      <c r="W12" t="s">
+        <v>336</v>
+      </c>
+      <c r="X12" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>426</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="s">
+        <v>157</v>
+      </c>
+      <c r="N13" t="s">
+        <v>175</v>
+      </c>
+      <c r="O13" t="s">
+        <v>193</v>
+      </c>
+      <c r="P13" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>229</v>
+      </c>
+      <c r="R13" t="s">
+        <v>247</v>
+      </c>
+      <c r="S13" t="s">
+        <v>265</v>
+      </c>
+      <c r="T13" t="s">
+        <v>283</v>
+      </c>
+      <c r="U13" t="s">
+        <v>301</v>
+      </c>
+      <c r="V13" t="s">
+        <v>319</v>
+      </c>
+      <c r="W13" t="s">
+        <v>337</v>
+      </c>
+      <c r="X13" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>445</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="s">
+        <v>158</v>
+      </c>
+      <c r="N14" t="s">
+        <v>176</v>
+      </c>
+      <c r="O14" t="s">
+        <v>194</v>
+      </c>
+      <c r="P14" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>230</v>
+      </c>
+      <c r="R14" t="s">
+        <v>248</v>
+      </c>
+      <c r="S14" t="s">
+        <v>266</v>
+      </c>
+      <c r="T14" t="s">
+        <v>284</v>
+      </c>
+      <c r="U14" t="s">
+        <v>302</v>
+      </c>
+      <c r="V14" t="s">
+        <v>320</v>
+      </c>
+      <c r="W14" t="s">
+        <v>338</v>
+      </c>
+      <c r="X14" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>392</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>428</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>446</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="s">
+        <v>159</v>
+      </c>
+      <c r="N15" t="s">
+        <v>177</v>
+      </c>
+      <c r="O15" t="s">
+        <v>195</v>
+      </c>
+      <c r="P15" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>231</v>
+      </c>
+      <c r="R15" t="s">
+        <v>249</v>
+      </c>
+      <c r="S15" t="s">
+        <v>267</v>
+      </c>
+      <c r="T15" t="s">
+        <v>285</v>
+      </c>
+      <c r="U15" t="s">
+        <v>303</v>
+      </c>
+      <c r="V15" t="s">
+        <v>321</v>
+      </c>
+      <c r="W15" t="s">
+        <v>339</v>
+      </c>
+      <c r="X15" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
         <v>50</v>
       </c>
-      <c r="H7" t="s">
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="s">
+        <v>160</v>
+      </c>
+      <c r="N16" t="s">
+        <v>178</v>
+      </c>
+      <c r="O16" t="s">
+        <v>196</v>
+      </c>
+      <c r="P16" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>232</v>
+      </c>
+      <c r="R16" t="s">
+        <v>250</v>
+      </c>
+      <c r="S16" t="s">
+        <v>268</v>
+      </c>
+      <c r="T16" t="s">
+        <v>286</v>
+      </c>
+      <c r="U16" t="s">
+        <v>304</v>
+      </c>
+      <c r="V16" t="s">
+        <v>322</v>
+      </c>
+      <c r="W16" t="s">
+        <v>340</v>
+      </c>
+      <c r="X16" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>412</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>448</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
         <v>51</v>
       </c>
-      <c r="I7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>105</v>
-      </c>
-      <c r="R7" t="s">
-        <v>111</v>
-      </c>
-      <c r="S7" t="s">
-        <v>117</v>
-      </c>
-      <c r="T7" t="s">
-        <v>123</v>
-      </c>
-      <c r="U7" t="s">
-        <v>129</v>
-      </c>
-      <c r="V7" t="s">
-        <v>135</v>
-      </c>
-      <c r="W7" t="s">
-        <v>141</v>
-      </c>
-      <c r="X7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>183</v>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" t="s">
+        <v>161</v>
+      </c>
+      <c r="N17" t="s">
+        <v>179</v>
+      </c>
+      <c r="O17" t="s">
+        <v>197</v>
+      </c>
+      <c r="P17" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>233</v>
+      </c>
+      <c r="R17" t="s">
+        <v>251</v>
+      </c>
+      <c r="S17" t="s">
+        <v>269</v>
+      </c>
+      <c r="T17" t="s">
+        <v>287</v>
+      </c>
+      <c r="U17" t="s">
+        <v>305</v>
+      </c>
+      <c r="V17" t="s">
+        <v>323</v>
+      </c>
+      <c r="W17" t="s">
+        <v>341</v>
+      </c>
+      <c r="X17" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>413</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>449</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" t="s">
+        <v>162</v>
+      </c>
+      <c r="N18" t="s">
+        <v>180</v>
+      </c>
+      <c r="O18" t="s">
+        <v>198</v>
+      </c>
+      <c r="P18" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>234</v>
+      </c>
+      <c r="R18" t="s">
+        <v>252</v>
+      </c>
+      <c r="S18" t="s">
+        <v>270</v>
+      </c>
+      <c r="T18" t="s">
+        <v>288</v>
+      </c>
+      <c r="U18" t="s">
+        <v>306</v>
+      </c>
+      <c r="V18" t="s">
+        <v>324</v>
+      </c>
+      <c r="W18" t="s">
+        <v>342</v>
+      </c>
+      <c r="X18" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" t="s">
+        <v>145</v>
+      </c>
+      <c r="M19" t="s">
+        <v>163</v>
+      </c>
+      <c r="N19" t="s">
+        <v>181</v>
+      </c>
+      <c r="O19" t="s">
+        <v>199</v>
+      </c>
+      <c r="P19" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>235</v>
+      </c>
+      <c r="R19" t="s">
+        <v>253</v>
+      </c>
+      <c r="S19" t="s">
+        <v>271</v>
+      </c>
+      <c r="T19" t="s">
+        <v>289</v>
+      </c>
+      <c r="U19" t="s">
+        <v>307</v>
+      </c>
+      <c r="V19" t="s">
+        <v>325</v>
+      </c>
+      <c r="W19" t="s">
+        <v>343</v>
+      </c>
+      <c r="X19" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>415</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
